--- a/Consumer/Starbucks.xlsx
+++ b/Consumer/Starbucks.xlsx
@@ -1,34 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274558D2-A313-D249-AD2C-D1BF90FFB2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE324B51-AF53-A74D-BC4F-03F8A74F69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$19:$AG$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$B$3:$AG$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$106:$AG$106</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$19:$AG$19</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$B$3:$AG$3</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$106:$AG$106</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -84,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -564,6 +550,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>``</t>
   </si>
 </sst>
 </file>
@@ -972,18 +961,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1018,12 +995,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1041,6 +1012,24 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2491,13 +2480,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>110.83</v>
+    <v>115.48</v>
     <v>68.39</v>
-    <v>0.94199999999999995</v>
-    <v>-0.22</v>
-    <v>-2.0969999999999999E-3</v>
-    <v>-0.18</v>
-    <v>-1.72E-3</v>
+    <v>0.95389999999999997</v>
+    <v>-0.81</v>
+    <v>-7.6100000000000004E-3</v>
+    <v>0.01</v>
+    <v>9.467E-5</v>
     <v>USD</v>
     <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
     <v>402000</v>
@@ -2505,25 +2494,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>105.16</v>
+    <v>106.76</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45022.997502835155</v>
+    <v>45057.999662638278</v>
     <v>0</v>
-    <v>104.02</v>
-    <v>120308700000</v>
+    <v>105.12</v>
+    <v>122630400000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>104.9</v>
-    <v>36.4041</v>
-    <v>104.9</v>
-    <v>104.68</v>
-    <v>104.5</v>
-    <v>1149300000</v>
+    <v>106.44</v>
+    <v>34.502699999999997</v>
+    <v>106.44</v>
+    <v>105.63</v>
+    <v>105.64</v>
+    <v>1146400000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>3155669</v>
-    <v>5589818</v>
+    <v>4791653</v>
+    <v>6417730</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -3111,10 +3100,10 @@
   <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AF97" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AQ112" sqref="AQ112"/>
+      <selection pane="bottomRight" activeCell="AK89" sqref="AK89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3502,7 +3491,7 @@
         <v>0.74250764525993884</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:AN4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:AL4" si="0">(F3/E3)-1</f>
         <v>0.63285363285363294</v>
       </c>
       <c r="G4" s="15">
@@ -4091,7 +4080,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15" t="e">
-        <f t="shared" ref="C9:AM9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:AG9" si="1">C8/C3</f>
         <v>#VALUE!</v>
       </c>
       <c r="D9" s="15" t="e">
@@ -4567,7 +4556,7 @@
         <v>8.4922010398613523E-2</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:AM13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:AG13" si="2">C12/C3</f>
         <v>8.7003222341568209E-2</v>
       </c>
       <c r="D13" s="15">
@@ -5027,15 +5016,15 @@
       </c>
       <c r="AN16" s="30">
         <f>AO101/AG3</f>
-        <v>3.73046762355699</v>
+        <v>3.8024576515567299</v>
       </c>
       <c r="AO16" s="30">
         <f>AO101/AG28</f>
-        <v>36.661598000975133</v>
+        <v>37.369088249634324</v>
       </c>
       <c r="AP16" s="31">
         <f>AO101/AG106</f>
-        <v>47.069131455399059</v>
+        <v>47.977464788732391</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -5366,7 +5355,7 @@
         <v>0.45893719806763289</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:AI20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:AG20" si="3">(F19/E19)-1</f>
         <v>1.2483443708609272</v>
       </c>
       <c r="G20" s="15">
@@ -6307,7 +6296,7 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:AI29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:AG29" si="4">(F28/E28)-1</f>
         <v>1.5588235294117645</v>
       </c>
       <c r="G29" s="15">
@@ -6934,7 +6923,7 @@
         <v>3.5900680056935003E-2</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:AI35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:AG35" si="5">(D34-C34)/C34</f>
         <v>4.3320610687022899E-2</v>
       </c>
       <c r="E35" s="22">
@@ -11503,7 +11492,7 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:AM80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:AG80" si="6">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15" t="e">
@@ -11933,10 +11922,10 @@
       <c r="AG83" s="1">
         <v>-641000000</v>
       </c>
-      <c r="AN83" s="34" t="s">
+      <c r="AN83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AO83" s="35"/>
+      <c r="AO83" s="61"/>
     </row>
     <row r="84" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12038,10 +12027,10 @@
       <c r="AG84" s="1">
         <v>345500000</v>
       </c>
-      <c r="AN84" s="36" t="s">
+      <c r="AN84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AO84" s="37"/>
+      <c r="AO84" s="63"/>
     </row>
     <row r="85" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -12467,10 +12456,10 @@
       <c r="AG88" s="1">
         <v>-1841300000</v>
       </c>
-      <c r="AN88" s="38" t="s">
+      <c r="AN88" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="AO88" s="39">
+      <c r="AO88" s="35">
         <f>AO85/(AO86+AO87)</f>
         <v>2.0285824707621993E-2</v>
       </c>
@@ -12480,7 +12469,7 @@
         <v>105</v>
       </c>
       <c r="B89" s="15">
-        <f t="shared" ref="B89:AM89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:AG89" si="7">(-1*B88)/B3</f>
         <v>0.18370883882149047</v>
       </c>
       <c r="C89" s="15">
@@ -12823,10 +12812,10 @@
       <c r="AG91" s="1">
         <v>-377900000</v>
       </c>
-      <c r="AN91" s="38" t="s">
+      <c r="AN91" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="AO91" s="39">
+      <c r="AO91" s="35">
         <f>AO89/AO90</f>
         <v>0.22413100498594013</v>
       </c>
@@ -12931,10 +12920,10 @@
       <c r="AG92" s="1">
         <v>139900000</v>
       </c>
-      <c r="AN92" s="40" t="s">
+      <c r="AN92" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="AO92" s="41">
+      <c r="AO92" s="37">
         <f>AO88*(1-AO91)</f>
         <v>1.573914242893406E-2</v>
       </c>
@@ -13039,10 +13028,10 @@
       <c r="AG93" s="1">
         <v>-126300000</v>
       </c>
-      <c r="AN93" s="36" t="s">
+      <c r="AN93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AO93" s="37"/>
+      <c r="AO93" s="63"/>
     </row>
     <row r="94" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13147,7 +13136,7 @@
       <c r="AN94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="AO94" s="42">
+      <c r="AO94" s="38">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -13254,9 +13243,9 @@
       <c r="AN95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AO95" s="43" cm="1">
+      <c r="AO95" s="39" cm="1">
         <f t="array" ref="AO95">_FV(A1,"Beta")</f>
-        <v>0.94199999999999995</v>
+        <v>0.95389999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13362,7 +13351,7 @@
       <c r="AN96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="AO96" s="42">
+      <c r="AO96" s="38">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -13466,12 +13455,12 @@
       <c r="AG97" s="1">
         <v>-4013000000</v>
       </c>
-      <c r="AN97" s="40" t="s">
+      <c r="AN97" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="AO97" s="41">
+      <c r="AO97" s="37">
         <f>(AO94)+((AO95)*(AO96-AO94))</f>
-        <v>8.1503099999999995E-2</v>
+        <v>8.2015395000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13574,10 +13563,10 @@
       <c r="AG98" s="1">
         <v>-2263300000</v>
       </c>
-      <c r="AN98" s="36" t="s">
+      <c r="AN98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AO98" s="37"/>
+      <c r="AO98" s="63"/>
     </row>
     <row r="99" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13787,12 +13776,12 @@
       <c r="AG100" s="10">
         <v>-5638000000</v>
       </c>
-      <c r="AN100" s="38" t="s">
+      <c r="AN100" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="AO100" s="39">
+      <c r="AO100" s="35">
         <f>AO99/AO103</f>
-        <v>0.16518091643045238</v>
+        <v>0.16256200694914885</v>
       </c>
     </row>
     <row r="101" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13898,9 +13887,9 @@
       <c r="AN101" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="AO101" s="44" cm="1">
+      <c r="AO101" s="40" cm="1">
         <f t="array" ref="AO101">_FV(A1,"Market cap",TRUE)</f>
-        <v>120308700000</v>
+        <v>122630400000</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14003,12 +13992,15 @@
       <c r="AG102" s="10">
         <v>-3637300000</v>
       </c>
-      <c r="AN102" s="38" t="s">
+      <c r="AJ102" t="s">
+        <v>160</v>
+      </c>
+      <c r="AN102" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="AO102" s="39">
+      <c r="AO102" s="35">
         <f>AO101/AO103</f>
-        <v>0.83481908356954759</v>
+        <v>0.8374379930508512</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14111,12 +14103,12 @@
       <c r="AG103" s="1">
         <v>6455700000</v>
       </c>
-      <c r="AN103" s="40" t="s">
+      <c r="AN103" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="AO103" s="45">
+      <c r="AO103" s="41">
         <f>AO99+AO101</f>
-        <v>144113500000</v>
+        <v>146435200000</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14219,10 +14211,10 @@
       <c r="AG104" s="11">
         <v>2818400000</v>
       </c>
-      <c r="AN104" s="36" t="s">
+      <c r="AN104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AO104" s="37"/>
+      <c r="AO104" s="63"/>
     </row>
     <row r="105" spans="1:41" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14250,7 +14242,7 @@
         <v>-0.78728813559322031</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:AI105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:AG105" si="8">(H106/G106)-1</f>
         <v>1.737051792828685</v>
       </c>
       <c r="I105" s="15">
@@ -14364,7 +14356,7 @@
       </c>
       <c r="AO105" s="26">
         <f>(AO100*AO92)+(AO102*AO97)</f>
-        <v>7.064014922031793E-2</v>
+        <v>7.1241394368978833E-2</v>
       </c>
     </row>
     <row r="106" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -14467,33 +14459,33 @@
       <c r="AG106" s="1">
         <v>2556000000</v>
       </c>
-      <c r="AH106" s="46">
+      <c r="AH106" s="42">
         <f>AG106*(1+$AO$106)</f>
         <v>2846830352.6658978</v>
       </c>
-      <c r="AI106" s="46">
+      <c r="AI106" s="42">
         <f t="shared" ref="AI106:AL106" si="9">AH106*(1+$AO$106)</f>
         <v>3170752369.6634741</v>
       </c>
-      <c r="AJ106" s="46">
+      <c r="AJ106" s="42">
         <f t="shared" si="9"/>
         <v>3531531332.8424487</v>
       </c>
-      <c r="AK106" s="46">
+      <c r="AK106" s="42">
         <f t="shared" si="9"/>
         <v>3933360950.5972362</v>
       </c>
-      <c r="AL106" s="46">
+      <c r="AL106" s="42">
         <f t="shared" si="9"/>
         <v>4380912105.6928797</v>
       </c>
-      <c r="AM106" s="47" t="s">
+      <c r="AM106" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="AN106" s="48" t="s">
+      <c r="AN106" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="AO106" s="49">
+      <c r="AO106" s="45">
         <f>(SUM(AH4:AL4)/5)</f>
         <v>0.11378339306177536</v>
       </c>
@@ -14532,151 +14524,151 @@
       <c r="AE107" s="13"/>
       <c r="AF107" s="13"/>
       <c r="AG107" s="13"/>
-      <c r="AH107" s="47"/>
-      <c r="AI107" s="47"/>
-      <c r="AJ107" s="47"/>
-      <c r="AK107" s="47"/>
-      <c r="AL107" s="50">
+      <c r="AH107" s="43"/>
+      <c r="AI107" s="43"/>
+      <c r="AJ107" s="43"/>
+      <c r="AK107" s="43"/>
+      <c r="AL107" s="46">
         <f>AL106*(1+AO107)/(AO108-AO107)</f>
-        <v>98387822674.693726</v>
-      </c>
-      <c r="AM107" s="51" t="s">
+        <v>97108553269.48407</v>
+      </c>
+      <c r="AM107" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="AN107" s="52" t="s">
+      <c r="AN107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AO107" s="53">
+      <c r="AO107" s="49">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="AH108" s="50">
+      <c r="AH108" s="46">
         <f t="shared" ref="AH108:AJ108" si="10">AH107+AH106</f>
         <v>2846830352.6658978</v>
       </c>
-      <c r="AI108" s="50">
+      <c r="AI108" s="46">
         <f t="shared" si="10"/>
         <v>3170752369.6634741</v>
       </c>
-      <c r="AJ108" s="50">
+      <c r="AJ108" s="46">
         <f t="shared" si="10"/>
         <v>3531531332.8424487</v>
       </c>
-      <c r="AK108" s="50">
+      <c r="AK108" s="46">
         <f>AK107+AK106</f>
         <v>3933360950.5972362</v>
       </c>
-      <c r="AL108" s="50">
+      <c r="AL108" s="46">
         <f>AL107+AL106</f>
-        <v>102768734780.38661</v>
-      </c>
-      <c r="AM108" s="51" t="s">
+        <v>101489465375.17696</v>
+      </c>
+      <c r="AM108" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="AN108" s="54" t="s">
+      <c r="AN108" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="AO108" s="55">
+      <c r="AO108" s="51">
         <f>AO105</f>
-        <v>7.064014922031793E-2</v>
+        <v>7.1241394368978833E-2</v>
       </c>
     </row>
     <row r="109" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="AH109" s="56" t="s">
+      <c r="AH109" s="64" t="s">
         <v>151</v>
       </c>
-      <c r="AI109" s="57"/>
+      <c r="AI109" s="65"/>
     </row>
     <row r="110" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH110" s="58" t="s">
+      <c r="AH110" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="AI110" s="44">
+      <c r="AI110" s="40">
         <f>NPV(AO108,AH108,AI108,AJ108,AK108,AL108)</f>
-        <v>84350227109.220993</v>
+        <v>83222462975.205795</v>
       </c>
     </row>
     <row r="111" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH111" s="58" t="s">
+      <c r="AH111" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="AI111" s="44">
+      <c r="AI111" s="40">
         <f>AG40</f>
         <v>3182900000</v>
       </c>
     </row>
     <row r="112" spans="1:41" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH112" s="58" t="s">
+      <c r="AH112" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="AI112" s="44">
+      <c r="AI112" s="40">
         <f>AO99</f>
         <v>23804800000</v>
       </c>
     </row>
     <row r="113" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH113" s="58" t="s">
+      <c r="AH113" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="AI113" s="44">
+      <c r="AI113" s="40">
         <f>AI110+AI111-AI112</f>
-        <v>63728327109.220993</v>
+        <v>62600562975.205795</v>
       </c>
     </row>
     <row r="114" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH114" s="58" t="s">
+      <c r="AH114" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="AI114" s="59">
+      <c r="AI114" s="53">
         <f>AG34*(1+(5*AM16))</f>
         <v>900349634.31106174</v>
       </c>
     </row>
     <row r="115" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH115" s="60" t="s">
+      <c r="AH115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="AI115" s="61">
+      <c r="AI115" s="55">
         <f>AI113/AI114</f>
-        <v>70.78175486569198</v>
+        <v>69.529170212977434</v>
       </c>
     </row>
     <row r="116" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH116" s="58" t="s">
+      <c r="AH116" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="AI116" s="62" cm="1">
+      <c r="AI116" s="56" cm="1">
         <f t="array" ref="AI116">_FV(A1,"Price")</f>
-        <v>104.68</v>
+        <v>105.63</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH117" s="63" t="s">
+      <c r="AH117" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="AI117" s="64">
+      <c r="AI117" s="58">
         <f>AI115/AI116-1</f>
-        <v>-0.32382733219629367</v>
+        <v>-0.34176682558953486</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.25">
-      <c r="AH118" s="63" t="s">
+      <c r="AH118" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="AI118" s="65" t="str">
+      <c r="AI118" s="59" t="str">
         <f>IF(AI115&gt;AI116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="AH109:AI109"/>
     <mergeCell ref="AN83:AO83"/>
     <mergeCell ref="AN84:AO84"/>
     <mergeCell ref="AN93:AO93"/>
     <mergeCell ref="AN98:AO98"/>
     <mergeCell ref="AN104:AO104"/>
-    <mergeCell ref="AH109:AI109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/SBUX" display="ROIC.AI | SBUX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Consumer/Starbucks.xlsx
+++ b/Consumer/Starbucks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE324B51-AF53-A74D-BC4F-03F8A74F69FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134ADD54-CD13-2E4F-90BC-378CCB8BF2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,6 +1013,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1024,12 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2481,12 +2481,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>115.48</v>
-    <v>68.39</v>
-    <v>0.95389999999999997</v>
-    <v>-0.81</v>
-    <v>-7.6100000000000004E-3</v>
-    <v>0.01</v>
-    <v>9.467E-5</v>
+    <v>73.510000000000005</v>
+    <v>0.94569999999999999</v>
+    <v>-2.85</v>
+    <v>-2.826E-2</v>
     <v>USD</v>
     <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
     <v>402000</v>
@@ -2494,25 +2492,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>106.76</v>
+    <v>99.72</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45057.999662638278</v>
+    <v>45100.77539047422</v>
     <v>0</v>
-    <v>105.12</v>
-    <v>122630400000</v>
+    <v>97.52</v>
+    <v>112347200000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>106.44</v>
-    <v>34.502699999999997</v>
-    <v>106.44</v>
-    <v>105.63</v>
-    <v>105.64</v>
+    <v>99.65</v>
+    <v>32.690600000000003</v>
+    <v>100.85</v>
+    <v>98</v>
     <v>1146400000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>4791653</v>
-    <v>6417730</v>
+    <v>5842211</v>
+    <v>6846957</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -2544,8 +2541,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2566,7 +2561,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2583,7 +2577,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2594,16 +2588,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2669,19 +2660,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2726,9 +2711,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2736,9 +2718,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3100,10 +3079,10 @@
   <dimension ref="A1:AP118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AE72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK89" sqref="AK89"/>
+      <selection pane="bottomRight" activeCell="AH102" sqref="AH102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5016,15 +4995,15 @@
       </c>
       <c r="AN16" s="30">
         <f>AO101/AG3</f>
-        <v>3.8024576515567299</v>
+        <v>3.4836017029298953</v>
       </c>
       <c r="AO16" s="30">
         <f>AO101/AG28</f>
-        <v>37.369088249634324</v>
+        <v>34.235494880546078</v>
       </c>
       <c r="AP16" s="31">
         <f>AO101/AG106</f>
-        <v>47.977464788732391</v>
+        <v>43.954303599374022</v>
       </c>
     </row>
     <row r="17" spans="1:39" ht="19" x14ac:dyDescent="0.25">
@@ -11922,10 +11901,10 @@
       <c r="AG83" s="1">
         <v>-641000000</v>
       </c>
-      <c r="AN83" s="60" t="s">
+      <c r="AN83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AO83" s="61"/>
+      <c r="AO83" s="63"/>
     </row>
     <row r="84" spans="1:41" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -12027,10 +12006,10 @@
       <c r="AG84" s="1">
         <v>345500000</v>
       </c>
-      <c r="AN84" s="62" t="s">
+      <c r="AN84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AO84" s="63"/>
+      <c r="AO84" s="65"/>
     </row>
     <row r="85" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13028,10 +13007,10 @@
       <c r="AG93" s="1">
         <v>-126300000</v>
       </c>
-      <c r="AN93" s="62" t="s">
+      <c r="AN93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AO93" s="63"/>
+      <c r="AO93" s="65"/>
     </row>
     <row r="94" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -13245,7 +13224,7 @@
       </c>
       <c r="AO95" s="39" cm="1">
         <f t="array" ref="AO95">_FV(A1,"Beta")</f>
-        <v>0.95389999999999997</v>
+        <v>0.94569999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13460,7 +13439,7 @@
       </c>
       <c r="AO97" s="37">
         <f>(AO94)+((AO95)*(AO96-AO94))</f>
-        <v>8.2015395000000005E-2</v>
+        <v>8.1662385000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -13563,10 +13542,10 @@
       <c r="AG98" s="1">
         <v>-2263300000</v>
       </c>
-      <c r="AN98" s="62" t="s">
+      <c r="AN98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AO98" s="63"/>
+      <c r="AO98" s="65"/>
     </row>
     <row r="99" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -13781,7 +13760,7 @@
       </c>
       <c r="AO100" s="35">
         <f>AO99/AO103</f>
-        <v>0.16256200694914885</v>
+        <v>0.17483988483459662</v>
       </c>
     </row>
     <row r="101" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -13889,7 +13868,7 @@
       </c>
       <c r="AO101" s="40" cm="1">
         <f t="array" ref="AO101">_FV(A1,"Market cap",TRUE)</f>
-        <v>122630400000</v>
+        <v>112347200000</v>
       </c>
     </row>
     <row r="102" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14000,7 +13979,7 @@
       </c>
       <c r="AO102" s="35">
         <f>AO101/AO103</f>
-        <v>0.8374379930508512</v>
+        <v>0.82516011516540333</v>
       </c>
     </row>
     <row r="103" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14108,7 +14087,7 @@
       </c>
       <c r="AO103" s="41">
         <f>AO99+AO101</f>
-        <v>146435200000</v>
+        <v>136152000000</v>
       </c>
     </row>
     <row r="104" spans="1:41" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -14211,10 +14190,10 @@
       <c r="AG104" s="11">
         <v>2818400000</v>
       </c>
-      <c r="AN104" s="62" t="s">
+      <c r="AN104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AO104" s="63"/>
+      <c r="AO104" s="65"/>
     </row>
     <row r="105" spans="1:41" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -14356,7 +14335,7 @@
       </c>
       <c r="AO105" s="26">
         <f>(AO100*AO92)+(AO102*AO97)</f>
-        <v>7.1241394368978833E-2</v>
+        <v>7.0136372860951646E-2</v>
       </c>
     </row>
     <row r="106" spans="1:41" ht="19" x14ac:dyDescent="0.25">
@@ -14530,7 +14509,7 @@
       <c r="AK107" s="43"/>
       <c r="AL107" s="46">
         <f>AL106*(1+AO107)/(AO108-AO107)</f>
-        <v>97108553269.48407</v>
+        <v>99485949439.680481</v>
       </c>
       <c r="AM107" s="47" t="s">
         <v>148</v>
@@ -14561,7 +14540,7 @@
       </c>
       <c r="AL108" s="46">
         <f>AL107+AL106</f>
-        <v>101489465375.17696</v>
+        <v>103866861545.37337</v>
       </c>
       <c r="AM108" s="47" t="s">
         <v>144</v>
@@ -14571,14 +14550,14 @@
       </c>
       <c r="AO108" s="51">
         <f>AO105</f>
-        <v>7.1241394368978833E-2</v>
+        <v>7.0136372860951646E-2</v>
       </c>
     </row>
     <row r="109" spans="1:41" ht="19" x14ac:dyDescent="0.25">
-      <c r="AH109" s="64" t="s">
+      <c r="AH109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AI109" s="65"/>
+      <c r="AI109" s="61"/>
     </row>
     <row r="110" spans="1:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AH110" s="52" t="s">
@@ -14586,7 +14565,7 @@
       </c>
       <c r="AI110" s="40">
         <f>NPV(AO108,AH108,AI108,AJ108,AK108,AL108)</f>
-        <v>83222462975.205795</v>
+        <v>85318357072.088806</v>
       </c>
     </row>
     <row r="111" spans="1:41" ht="20" x14ac:dyDescent="0.25">
@@ -14613,7 +14592,7 @@
       </c>
       <c r="AI113" s="40">
         <f>AI110+AI111-AI112</f>
-        <v>62600562975.205795</v>
+        <v>64696457072.088806</v>
       </c>
     </row>
     <row r="114" spans="34:35" ht="20" x14ac:dyDescent="0.25">
@@ -14631,7 +14610,7 @@
       </c>
       <c r="AI115" s="55">
         <f>AI113/AI114</f>
-        <v>69.529170212977434</v>
+        <v>71.857037096032002</v>
       </c>
     </row>
     <row r="116" spans="34:35" ht="20" x14ac:dyDescent="0.25">
@@ -14640,7 +14619,7 @@
       </c>
       <c r="AI116" s="56" cm="1">
         <f t="array" ref="AI116">_FV(A1,"Price")</f>
-        <v>105.63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117" spans="34:35" ht="20" x14ac:dyDescent="0.25">
@@ -14649,7 +14628,7 @@
       </c>
       <c r="AI117" s="58">
         <f>AI115/AI116-1</f>
-        <v>-0.34176682558953486</v>
+        <v>-0.26676492759151016</v>
       </c>
     </row>
     <row r="118" spans="34:35" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Starbucks.xlsx
+++ b/Consumer/Starbucks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1992CF04-465E-E345-A100-DC5380CB3F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1DD84-18F1-3848-B584-C75E020955BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="252">
   <si>
     <t>2010 Y</t>
   </si>
@@ -827,6 +827,9 @@
   </si>
   <si>
     <t>WACC</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
   </si>
 </sst>
 </file>
@@ -839,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -996,6 +999,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="15">
     <fill>
@@ -1079,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1124,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1191,23 +1143,93 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,7 +1239,148 @@
       </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1225,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1282,246 +1445,258 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="12" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="21" fillId="9" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1556,44 +1731,40 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
-      <sheetName val="Concentrated"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Quality"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
       <sheetName val="Other HF Buys"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8399999999999999E-2</v>
+            <v>4.4839999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1720,38 +1891,38 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>115.48</v>
-    <v>82.97</v>
-    <v>0.97189999999999999</v>
-    <v>-1.33</v>
-    <v>-1.4149E-2</v>
-    <v>0.03</v>
-    <v>3.2370000000000001E-4</v>
+    <v>89.21</v>
+    <v>0.98209999999999997</v>
+    <v>-0.42</v>
+    <v>-4.0860000000000002E-3</v>
+    <v>-0.03</v>
+    <v>-2.9309999999999997E-4</v>
     <v>USD</v>
     <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
-    <v>402000</v>
+    <v>381000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>94.475999999999999</v>
+    <v>103.09</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45225.999540312499</v>
+    <v>45258.041326099221</v>
     <v>0</v>
-    <v>92.6</v>
-    <v>106144218000</v>
+    <v>102.065</v>
+    <v>116352612000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>93.81</v>
-    <v>33.311599999999999</v>
-    <v>94</v>
-    <v>92.67</v>
-    <v>92.7</v>
-    <v>1145400000</v>
+    <v>102.29</v>
+    <v>32.799700000000001</v>
+    <v>102.78</v>
+    <v>102.36</v>
+    <v>102.33</v>
+    <v>1136700000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>6201678</v>
-    <v>5425494</v>
+    <v>7853572</v>
+    <v>8063268</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -2361,20 +2532,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XEY200"/>
+  <dimension ref="A1:XEY196"/>
   <sheetViews>
     <sheetView topLeftCell="A116" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="K188" sqref="K188:N188"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.83203125" customWidth="1"/>
     <col min="2" max="20" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -2433,7 +2604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2574,7 +2745,7 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -2633,7 +2804,7 @@
         <v>9168300000</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2863,7 @@
         <v>6561800000</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -2751,7 +2922,7 @@
         <v>6561800000</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -2810,7 +2981,7 @@
         <v>2606500000</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>58</v>
       </c>
@@ -2869,7 +3040,7 @@
         <v>28.43</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -2928,7 +3099,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -2987,7 +3158,7 @@
         <v>1085200000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3134,7 +3305,7 @@
       <c r="AC12" s="13"/>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3281,7 +3452,7 @@
       <c r="AC14" s="13"/>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3340,7 +3511,7 @@
         <v>480900000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -3399,7 +3570,7 @@
         <v>1521300000</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -3540,7 +3711,7 @@
       <c r="AC18" s="13"/>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
@@ -3599,7 +3770,7 @@
         <v>57000000</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>31</v>
       </c>
@@ -3658,7 +3829,7 @@
         <v>119600000</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>32</v>
       </c>
@@ -3717,7 +3888,7 @@
         <v>140900000</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>33</v>
       </c>
@@ -3776,7 +3947,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>34</v>
       </c>
@@ -3835,7 +4006,7 @@
         <v>-62600000</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>35</v>
       </c>
@@ -3894,7 +4065,7 @@
         <v>1464300000</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>36</v>
       </c>
@@ -3953,7 +4124,7 @@
         <v>322400000</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
@@ -4012,7 +4183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>38</v>
       </c>
@@ -4071,7 +4242,7 @@
         <v>1141900000</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>39</v>
       </c>
@@ -4130,7 +4301,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4189,7 +4360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>41</v>
       </c>
@@ -4248,7 +4419,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -4307,7 +4478,7 @@
         <v>1141500000</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>43</v>
       </c>
@@ -4366,7 +4537,7 @@
         <v>-200000</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -4425,7 +4596,7 @@
         <v>1141700000</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>60</v>
       </c>
@@ -4643,7 +4814,7 @@
         <v>7.1179255876628239E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>45</v>
       </c>
@@ -4702,7 +4873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>46</v>
       </c>
@@ -4761,7 +4932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>47</v>
       </c>
@@ -4820,7 +4991,7 @@
         <v>1141700000</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>48</v>
       </c>
@@ -4879,7 +5050,7 @@
         <v>1145400000</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>49</v>
       </c>
@@ -4938,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>50</v>
       </c>
@@ -4997,7 +5168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>51</v>
       </c>
@@ -5056,7 +5227,7 @@
         <v>1150500000</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>52</v>
       </c>
@@ -5115,7 +5286,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>53</v>
       </c>
@@ -5174,7 +5345,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>54</v>
       </c>
@@ -5233,7 +5404,7 @@
         <v>1885800000</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -5292,7 +5463,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>56</v>
       </c>
@@ -5351,7 +5522,7 @@
         <v>1521300000</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>57</v>
       </c>
@@ -5410,7 +5581,7 @@
         <v>1521300000</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>61</v>
       </c>
@@ -5469,7 +5640,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>62</v>
       </c>
@@ -5528,7 +5699,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>63</v>
       </c>
@@ -5587,7 +5758,7 @@
         <v>364500000</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -5646,7 +5817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>64</v>
       </c>
@@ -5705,7 +5876,7 @@
         <v>7170700000</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>65</v>
       </c>
@@ -5764,7 +5935,7 @@
         <v>3620000000</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -5823,7 +5994,7 @@
         <v>3357000000</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>67</v>
       </c>
@@ -5882,7 +6053,7 @@
         <v>263000000</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
@@ -5941,7 +6112,7 @@
         <v>1140200000</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
@@ -6000,7 +6171,7 @@
         <v>1140200000</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
@@ -6059,7 +6230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
@@ -6118,7 +6289,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
@@ -6177,7 +6348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -6236,7 +6407,7 @@
         <v>1987000000</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
@@ -6295,7 +6466,7 @@
         <v>1370300000</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>75</v>
       </c>
@@ -6354,7 +6525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>76</v>
       </c>
@@ -6413,7 +6584,7 @@
         <v>616700000</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>77</v>
       </c>
@@ -6472,7 +6643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>78</v>
       </c>
@@ -6531,7 +6702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>79</v>
       </c>
@@ -6590,7 +6761,7 @@
         <v>423500000</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>80</v>
       </c>
@@ -6649,7 +6820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>81</v>
       </c>
@@ -6708,7 +6879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>82</v>
       </c>
@@ -6767,7 +6938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>83</v>
       </c>
@@ -6826,7 +6997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>84</v>
       </c>
@@ -6885,7 +7056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>85</v>
       </c>
@@ -6944,7 +7115,7 @@
         <v>21562300000</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>86</v>
       </c>
@@ -7003,7 +7174,7 @@
         <v>5544300000</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>87</v>
       </c>
@@ -7062,7 +7233,7 @@
         <v>15232000000</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
@@ -7121,7 +7292,7 @@
         <v>9687700000</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>89</v>
       </c>
@@ -7180,7 +7351,7 @@
         <v>623000000</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>90</v>
       </c>
@@ -7239,7 +7410,7 @@
         <v>623000000</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>91</v>
       </c>
@@ -7298,7 +7469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>92</v>
       </c>
@@ -7357,7 +7528,7 @@
         <v>15395000000</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>93</v>
       </c>
@@ -7416,7 +7587,7 @@
         <v>3375300000</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>94</v>
       </c>
@@ -7475,7 +7646,7 @@
         <v>3250900000</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>95</v>
       </c>
@@ -7534,7 +7705,7 @@
         <v>124400000</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>96</v>
       </c>
@@ -7593,7 +7764,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>97</v>
       </c>
@@ -7652,7 +7823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -7711,7 +7882,7 @@
         <v>12019700000</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
@@ -7770,7 +7941,7 @@
         <v>28733000000</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>100</v>
       </c>
@@ -7829,7 +8000,7 @@
         <v>4319400000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>101</v>
       </c>
@@ -7888,7 +8059,7 @@
         <v>1503500000</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>102</v>
       </c>
@@ -7947,7 +8118,7 @@
         <v>378900000</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>103</v>
       </c>
@@ -8006,7 +8177,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>104</v>
       </c>
@@ -8065,7 +8236,7 @@
         <v>2437000000</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>105</v>
       </c>
@@ -8124,7 +8295,7 @@
         <v>3135600000</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>106</v>
       </c>
@@ -8183,7 +8354,7 @@
         <v>1870400000</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>107</v>
       </c>
@@ -8242,7 +8413,7 @@
         <v>1265200000</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>108</v>
       </c>
@@ -8301,7 +8472,7 @@
         <v>1759600000</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>109</v>
       </c>
@@ -8360,7 +8531,7 @@
         <v>1759600000</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>110</v>
       </c>
@@ -8419,7 +8590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>111</v>
       </c>
@@ -8478,7 +8649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>112</v>
       </c>
@@ -8537,7 +8708,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>113</v>
       </c>
@@ -8596,7 +8767,7 @@
         <v>9214600000</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>114</v>
       </c>
@@ -8655,7 +8826,7 @@
         <v>21235600000</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -8714,7 +8885,7 @@
         <v>13544400000</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>116</v>
       </c>
@@ -8773,7 +8944,7 @@
         <v>7691200000</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>117</v>
       </c>
@@ -8832,7 +9003,7 @@
         <v>6624400000</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>118</v>
       </c>
@@ -8891,7 +9062,7 @@
         <v>6152500000</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>119</v>
       </c>
@@ -8950,7 +9121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -9009,7 +9180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>111</v>
       </c>
@@ -9068,7 +9239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>110</v>
       </c>
@@ -9127,7 +9298,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>120</v>
       </c>
@@ -9186,7 +9357,7 @@
         <v>471900000</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>121</v>
       </c>
@@ -9245,7 +9416,7 @@
         <v>27860000000</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>122</v>
       </c>
@@ -9304,7 +9475,7 @@
         <v>37074600000</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>123</v>
       </c>
@@ -9363,7 +9534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>124</v>
       </c>
@@ -9422,7 +9593,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>125</v>
       </c>
@@ -9481,7 +9652,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>126</v>
       </c>
@@ -9540,7 +9711,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>127</v>
       </c>
@@ -9599,7 +9770,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>128</v>
       </c>
@@ -9658,7 +9829,7 @@
         <v>-7610500000</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>129</v>
       </c>
@@ -9717,7 +9888,7 @@
         <v>-777500000</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>130</v>
       </c>
@@ -9776,7 +9947,7 @@
         <v>-8348600000</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>131</v>
       </c>
@@ -9835,7 +10006,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>132</v>
       </c>
@@ -9894,7 +10065,7 @@
         <v>-8341600000</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>133</v>
       </c>
@@ -9953,7 +10124,7 @@
         <v>28733000000</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>134</v>
       </c>
@@ -10094,7 +10265,7 @@
       <c r="AC129" s="13"/>
       <c r="AD129" s="13"/>
     </row>
-    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>135</v>
       </c>
@@ -10153,7 +10324,7 @@
         <v>8956400000</v>
       </c>
     </row>
-    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>136</v>
       </c>
@@ -10212,7 +10383,7 @@
         <v>12057800000</v>
       </c>
     </row>
-    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>137</v>
       </c>
@@ -10271,7 +10442,7 @@
         <v>-144.55000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>138</v>
       </c>
@@ -10330,7 +10501,7 @@
         <v>-46.21</v>
       </c>
     </row>
-    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>139</v>
       </c>
@@ -10389,7 +10560,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>140</v>
       </c>
@@ -10448,7 +10619,7 @@
         <v>19.79</v>
       </c>
     </row>
-    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>141</v>
       </c>
@@ -10507,7 +10678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>24</v>
       </c>
@@ -10566,7 +10737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>142</v>
       </c>
@@ -10625,7 +10796,7 @@
         <v>1141800000</v>
       </c>
     </row>
-    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>143</v>
       </c>
@@ -10684,7 +10855,7 @@
         <v>364500000</v>
       </c>
     </row>
-    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>144</v>
       </c>
@@ -10743,7 +10914,7 @@
         <v>439600000</v>
       </c>
     </row>
-    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>145</v>
       </c>
@@ -10890,7 +11061,7 @@
       <c r="AC143" s="13"/>
       <c r="AD143" s="13"/>
     </row>
-    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>146</v>
       </c>
@@ -10949,7 +11120,7 @@
         <v>-32800000</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>147</v>
       </c>
@@ -11008,7 +11179,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>148</v>
       </c>
@@ -11067,7 +11238,7 @@
         <v>403200000</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>149</v>
       </c>
@@ -11126,7 +11297,7 @@
         <v>-243000000</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>150</v>
       </c>
@@ -11185,7 +11356,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>151</v>
       </c>
@@ -11244,7 +11415,7 @@
         <v>-100000</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>152</v>
       </c>
@@ -11303,7 +11474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>153</v>
       </c>
@@ -11362,7 +11533,7 @@
         <v>98500000</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>154</v>
       </c>
@@ -11421,7 +11592,7 @@
         <v>-359500000</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>155</v>
       </c>
@@ -11480,7 +11651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>156</v>
       </c>
@@ -11539,7 +11710,7 @@
         <v>1702900000</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>157</v>
       </c>
@@ -11598,7 +11769,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>158</v>
       </c>
@@ -11657,7 +11828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>159</v>
       </c>
@@ -11716,7 +11887,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>160</v>
       </c>
@@ -11775,7 +11946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>161</v>
       </c>
@@ -11834,7 +12005,7 @@
         <v>-632100000</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>162</v>
       </c>
@@ -11893,7 +12064,7 @@
         <v>-632100000</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>163</v>
       </c>
@@ -11952,7 +12123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>164</v>
       </c>
@@ -12011,7 +12182,7 @@
         <v>135700000</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>165</v>
       </c>
@@ -12070,7 +12241,7 @@
         <v>245100000</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>166</v>
       </c>
@@ -12129,7 +12300,7 @@
         <v>-109400000</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>167</v>
       </c>
@@ -12188,7 +12359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>168</v>
       </c>
@@ -12247,7 +12418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>169</v>
       </c>
@@ -12306,7 +12477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>170</v>
       </c>
@@ -12365,7 +12536,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>171</v>
       </c>
@@ -12424,7 +12595,7 @@
         <v>-2800000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>155</v>
       </c>
@@ -12483,7 +12654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>172</v>
       </c>
@@ -12542,7 +12713,7 @@
         <v>-499200000</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>173</v>
       </c>
@@ -12601,7 +12772,7 @@
         <v>-607400000</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>174</v>
       </c>
@@ -12660,7 +12831,7 @@
         <v>-15800000</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>175</v>
       </c>
@@ -12719,7 +12890,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>176</v>
       </c>
@@ -12778,7 +12949,7 @@
         <v>-46700000</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>177</v>
       </c>
@@ -12837,7 +13008,7 @@
         <v>-200400000</v>
       </c>
     </row>
-    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>178</v>
       </c>
@@ -12896,7 +13067,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>179</v>
       </c>
@@ -12955,7 +13126,7 @@
         <v>-220000000</v>
       </c>
     </row>
-    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>180</v>
       </c>
@@ -13014,7 +13185,7 @@
         <v>-5900000</v>
       </c>
     </row>
-    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>155</v>
       </c>
@@ -13073,7 +13244,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>181</v>
       </c>
@@ -13132,7 +13303,7 @@
         <v>-829500000</v>
       </c>
     </row>
-    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>182</v>
       </c>
@@ -13191,7 +13362,7 @@
         <v>-89000000</v>
       </c>
     </row>
-    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>183</v>
       </c>
@@ -13250,7 +13421,7 @@
         <v>374200000</v>
       </c>
     </row>
-    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>54</v>
       </c>
@@ -13309,7 +13480,7 @@
         <v>1885800000</v>
       </c>
     </row>
-    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>55</v>
       </c>
@@ -13368,7 +13539,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>184</v>
       </c>
@@ -13427,7 +13598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>185</v>
       </c>
@@ -13486,7 +13657,7 @@
         <v>1070800000</v>
       </c>
     </row>
-    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>186</v>
       </c>
@@ -15427,7 +15598,7 @@
       <c r="XET190" s="29"/>
       <c r="XEY190" s="2"/>
     </row>
-    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>187</v>
       </c>
@@ -15486,7 +15657,7 @@
         <v>1055000000</v>
       </c>
     </row>
-    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1022 1027:2048 2053:3060 3074:4086 4100:5112 5126:6138 6152:7164 7178:8190 8204:9216 9230:10237 10242:11263 11268:12275 12289:13301 13315:14327 14341:15353 15367:16379" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>188</v>
       </c>
@@ -15545,7 +15716,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>189</v>
       </c>
@@ -15604,7 +15775,7 @@
         <v>16.79</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>190</v>
       </c>
@@ -15663,13 +15834,9 @@
         <v>1.49</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
     </row>
-    <row r="197" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="198" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="199" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
-    <row r="200" spans="1:19" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -15683,7 +15850,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15691,1732 +15858,1791 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="e" vm="1">
+    <row r="1" spans="1:16" s="108" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="107" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-    </row>
-    <row r="2" spans="1:16" s="109" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+    </row>
+    <row r="2" spans="1:16" s="108" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" cm="1">
+      <c r="A3" s="62" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>106144218000</v>
-      </c>
-      <c r="B3" s="31" t="s">
+        <v>116352612000</v>
+      </c>
+      <c r="B3" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="64">
         <f>Financials!O8*0.01</f>
         <v>0.26519999999999999</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="64">
         <f>SUM(C11:E11)/3</f>
         <v>7.7539626050813285E-2</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="66">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-3.1533897869909705E-2</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="35">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>160205766515.05872</v>
-      </c>
-      <c r="J3" s="31" t="s">
+      <c r="I3" s="67">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>156288959703.43292</v>
+      </c>
+      <c r="J3" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="36">
+      <c r="K3" s="69">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.2488271570289396E-2</v>
-      </c>
-      <c r="L3" s="33" t="s">
+        <v>2.0515224875226695E-2</v>
+      </c>
+      <c r="L3" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="M3" s="37"/>
-      <c r="N3" s="38" t="s">
+      <c r="M3" s="30"/>
+      <c r="N3" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="O3" s="39"/>
-      <c r="P3" s="37"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40">
+      <c r="A4" s="71">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-20751200000</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="42">
+      <c r="C4" s="32">
         <f>Financials!O17*0.01</f>
         <v>0.1444</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="32">
         <f>SUM(C13:E13)/3</f>
         <v>0.85434245894759686</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="G4" s="44">
+      <c r="G4" s="74">
         <f>A5*(1+(5*G3))</f>
-        <v>964805366.89902711</v>
-      </c>
-      <c r="H4" s="45" t="s">
+        <v>957477091.45636821</v>
+      </c>
+      <c r="H4" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="I4" s="46">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>134952687219.26958</v>
-      </c>
-      <c r="J4" s="43" t="s">
+      <c r="I4" s="31">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>131505012497.7971</v>
+      </c>
+      <c r="J4" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="K4" s="47" cm="1">
+      <c r="K4" s="75" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.4149E-2</v>
-      </c>
-      <c r="L4" s="45" t="s">
+        <v>-4.0860000000000002E-3</v>
+      </c>
+      <c r="L4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="48" t="s">
+      <c r="M4" s="30"/>
+      <c r="N4" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="O4" s="49"/>
-      <c r="P4" s="37"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="30"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" cm="1">
+      <c r="A5" s="71" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>1145400000</v>
-      </c>
-      <c r="B5" s="41" t="s">
+        <v>1136700000</v>
+      </c>
+      <c r="B5" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="32">
         <f>Financials!O34*0.01</f>
         <v>0.10800000000000001</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="42">
-        <f>SUM(C15:E15)/3</f>
+      <c r="E5" s="32">
+        <f>SUM(C16:E16)/3</f>
         <v>2.7758361779548859</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="74">
         <f>Financials!O56</f>
         <v>3620000000</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="73" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="31">
         <f>I4+G5-G6</f>
-        <v>114201487219.26959</v>
-      </c>
-      <c r="J5" s="43" t="s">
+        <v>110753812497.7971</v>
+      </c>
+      <c r="J5" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="K5" s="51" cm="1">
+      <c r="K5" s="78" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>92.67</v>
-      </c>
-      <c r="L5" s="41" t="s">
+        <v>102.36</v>
+      </c>
+      <c r="L5" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="M5" s="37"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="30"/>
+      <c r="N5" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="93">
         <f>Financials!O21</f>
         <v>532200000</v>
       </c>
-      <c r="P5" s="37"/>
+      <c r="P5" s="30"/>
     </row>
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="A6" s="80">
         <f>O20/F10</f>
-        <v>2.9574048647293192</v>
-      </c>
-      <c r="B6" s="41" t="s">
+        <v>3.2418325485497759</v>
+      </c>
+      <c r="B6" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="32">
         <f>Financials!O190</f>
         <v>9.691321439790726E-2</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="77" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="32">
         <f>Financials!O33/Financials!O126</f>
         <v>-0.45357005850196602</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="74">
         <f>Financials!O96+Financials!O105</f>
         <v>24371200000</v>
       </c>
-      <c r="H6" s="45" t="s">
+      <c r="H6" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="75">
         <f>N25</f>
-        <v>7.0643488115720646E-2</v>
-      </c>
-      <c r="J6" s="45" t="s">
+        <v>7.1787373937836643E-2</v>
+      </c>
+      <c r="J6" s="73" t="s">
         <v>225</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="33">
         <f>I5/G4</f>
-        <v>118.36738386553927</v>
-      </c>
-      <c r="L6" s="57" t="s">
+        <v>115.67254557426047</v>
+      </c>
+      <c r="L6" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="58" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="O6" s="59">
+      <c r="O6" s="93">
         <f>Financials!O96</f>
         <v>3135600000</v>
       </c>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60">
+      <c r="P6" s="30"/>
+    </row>
+    <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
         <f>O20/F12</f>
-        <v>26.709667337695016</v>
-      </c>
-      <c r="B7" s="61" t="s">
+        <v>29.278463009562152</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="62">
-        <f>F14/A3</f>
-        <v>3.4858234105601495E-2</v>
-      </c>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="84">
+        <f>F15/A3</f>
+        <v>3.1799887741239534E-2</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="85">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.23656235963467584</v>
       </c>
-      <c r="F7" s="61" t="s">
+      <c r="F7" s="83" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="86">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>-2.9216457274383809</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="88">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="90">
         <f>K6/K5-1</f>
-        <v>0.27729992301218598</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>0.13005613104982872</v>
+      </c>
+      <c r="L7" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="58" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="92" t="s">
         <v>233</v>
       </c>
-      <c r="O7" s="59">
+      <c r="O7" s="93">
         <f>Financials!O105</f>
         <v>21235600000</v>
       </c>
-      <c r="P7" s="37"/>
+      <c r="P7" s="30"/>
     </row>
     <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="72" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="O8" s="73">
+      <c r="O8" s="95">
         <f>O5/(O6+O7)</f>
         <v>2.1837250525210083E-2</v>
       </c>
-      <c r="P8" s="37"/>
+      <c r="P8" s="30"/>
     </row>
     <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43">
         <v>2019</v>
       </c>
-      <c r="C9" s="75">
+      <c r="C9" s="43">
         <v>2020</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="43">
         <v>2021</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="44">
         <v>2022</v>
       </c>
-      <c r="F9" s="76">
+      <c r="F9" s="45">
         <v>2023</v>
       </c>
-      <c r="G9" s="77">
+      <c r="G9" s="46">
         <v>2024</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="46">
         <v>2025</v>
       </c>
-      <c r="I9" s="77">
+      <c r="I9" s="46">
         <v>2026</v>
       </c>
-      <c r="J9" s="77">
+      <c r="J9" s="47">
         <v>2027</v>
       </c>
-      <c r="K9" s="78"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="58" t="s">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="92" t="s">
         <v>234</v>
       </c>
-      <c r="O9" s="59">
+      <c r="O9" s="93">
         <f>Financials!O25</f>
         <v>1126200000</v>
       </c>
-      <c r="P9" s="37"/>
+      <c r="P9" s="30"/>
     </row>
     <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="49">
         <v>26508600000</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="49">
         <v>23518000000</v>
       </c>
-      <c r="D10" s="81">
+      <c r="D10" s="49">
         <v>29060600000</v>
       </c>
-      <c r="E10" s="81">
+      <c r="E10" s="50">
         <v>32250300000</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="49">
         <v>35891000000</v>
       </c>
-      <c r="G10" s="81">
+      <c r="G10" s="49">
         <v>39781000000</v>
       </c>
-      <c r="H10" s="81">
+      <c r="H10" s="49">
         <v>43434000000</v>
       </c>
-      <c r="I10" s="81">
+      <c r="I10" s="49">
         <v>47410000000</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="50">
         <v>52726000000</v>
       </c>
-      <c r="K10" s="83" t="s">
+      <c r="K10" s="51" t="s">
         <v>236</v>
       </c>
-      <c r="N10" s="58" t="s">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="O10" s="59">
+      <c r="O10" s="93">
         <f>Financials!O24</f>
         <v>4910100000</v>
       </c>
-      <c r="P10" s="37"/>
+      <c r="P10" s="30"/>
     </row>
     <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="84"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85">
+      <c r="A11" s="52"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
         <v>-0.11281621813298326</v>
       </c>
-      <c r="D11" s="85">
+      <c r="D11" s="36">
         <f t="shared" si="0"/>
         <v>0.23567480227910531</v>
       </c>
-      <c r="E11" s="85">
+      <c r="E11" s="36">
         <f t="shared" si="0"/>
         <v>0.10976029400631782</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="37">
         <f t="shared" si="0"/>
         <v>0.11288887235157508</v>
       </c>
-      <c r="G11" s="85">
+      <c r="G11" s="36">
         <f t="shared" si="0"/>
         <v>0.10838371736647079</v>
       </c>
-      <c r="H11" s="85">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>9.1827756969407481E-2</v>
       </c>
-      <c r="I11" s="85">
+      <c r="I11" s="36">
         <f t="shared" si="0"/>
         <v>9.154118893033103E-2</v>
       </c>
-      <c r="J11" s="85">
+      <c r="J11" s="53">
         <f t="shared" si="0"/>
         <v>0.11212824298671165</v>
       </c>
-      <c r="K11" s="87">
+      <c r="K11" s="53">
         <f>SUM(F11:J11)/5</f>
         <v>0.1033539557208992</v>
       </c>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="58" t="s">
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="92" t="s">
         <v>238</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="96">
         <f>O9/O10</f>
         <v>0.22936396407405144</v>
       </c>
-      <c r="P11" s="37"/>
+      <c r="P11" s="30"/>
     </row>
     <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="49">
         <v>3599200000</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="49">
         <v>928300000</v>
       </c>
-      <c r="D12" s="81">
+      <c r="D12" s="49">
         <v>4199300000</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="49">
         <v>3281600000</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="54">
         <v>3974000000</v>
       </c>
-      <c r="G12" s="81">
+      <c r="G12" s="49">
         <v>4642000000</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="49">
         <v>5233000000</v>
       </c>
-      <c r="I12" s="81">
+      <c r="I12" s="49">
         <v>6049000000</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="50">
         <v>7500000000</v>
       </c>
-      <c r="K12" s="83" t="s">
+      <c r="K12" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="89" t="s">
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="96">
         <f>O8*(1-O11)</f>
         <v>1.6828572180269737E-2</v>
       </c>
-      <c r="P12" s="37"/>
+      <c r="P12" s="30"/>
     </row>
     <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85">
+      <c r="A13" s="52"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
         <v>-0.74208157368304062</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="36">
         <f t="shared" si="1"/>
         <v>3.523645373262954</v>
       </c>
-      <c r="E13" s="85">
+      <c r="E13" s="36">
         <f t="shared" si="1"/>
         <v>-0.21853642273712282</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="37">
         <f t="shared" si="1"/>
         <v>0.21099463676255481</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="36">
         <f t="shared" si="1"/>
         <v>0.16809260191243069</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="36">
         <f t="shared" si="1"/>
         <v>0.12731581214993537</v>
       </c>
-      <c r="I13" s="85">
+      <c r="I13" s="36">
         <f t="shared" si="1"/>
         <v>0.15593349894897757</v>
       </c>
-      <c r="J13" s="85">
+      <c r="J13" s="53">
         <f t="shared" si="1"/>
         <v>0.23987435939824775</v>
       </c>
-      <c r="K13" s="87">
+      <c r="K13" s="53">
         <f>SUM(F13:J13)/5</f>
         <v>0.18044218183442923</v>
       </c>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="48" t="s">
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="O13" s="49"/>
-      <c r="P13" s="37"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="30"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" s="39">
+        <f>B12/B10</f>
+        <v>0.13577480515757151</v>
+      </c>
+      <c r="C14" s="39">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>3.9471893868526238E-2</v>
+      </c>
+      <c r="D14" s="39">
+        <f t="shared" si="2"/>
+        <v>0.14450148998988321</v>
+      </c>
+      <c r="E14" s="39">
+        <f t="shared" si="2"/>
+        <v>0.10175409220999494</v>
+      </c>
+      <c r="F14" s="40">
+        <f t="shared" si="2"/>
+        <v>0.1107241369702711</v>
+      </c>
+      <c r="G14" s="39">
+        <f t="shared" si="2"/>
+        <v>0.11668887157185591</v>
+      </c>
+      <c r="H14" s="39">
+        <f t="shared" si="2"/>
+        <v>0.12048165032002578</v>
+      </c>
+      <c r="I14" s="39">
+        <f t="shared" si="2"/>
+        <v>0.12758911622020672</v>
+      </c>
+      <c r="J14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14224481280582635</v>
+      </c>
+      <c r="K14" s="41"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="92" t="s">
+        <v>243</v>
+      </c>
+      <c r="O14" s="96">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.4839999999999998E-2</v>
+      </c>
+      <c r="P14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B15" s="49">
         <v>3506803788</v>
       </c>
-      <c r="C14" s="81">
+      <c r="C15" s="49">
         <v>461240450</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D15" s="49">
         <v>4887466208</v>
       </c>
-      <c r="E14" s="81">
+      <c r="E15" s="49">
         <v>2930667138</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F15" s="54">
         <v>3700000000</v>
       </c>
-      <c r="G14" s="81">
+      <c r="G15" s="49">
         <v>4300000000</v>
       </c>
-      <c r="H14" s="81">
+      <c r="H15" s="49">
         <v>5000000000</v>
       </c>
-      <c r="I14" s="81">
+      <c r="I15" s="49">
         <v>6200000000</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J15" s="50">
         <v>7134000000</v>
       </c>
-      <c r="K14" s="83" t="s">
+      <c r="K15" s="55" t="s">
         <v>242</v>
       </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="58" t="s">
-        <v>243</v>
-      </c>
-      <c r="O14" s="88">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8399999999999999E-2</v>
-      </c>
-      <c r="P14" s="37"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="O15" s="97" cm="1">
+        <f t="array" ref="O15">_FV(A1,"Beta")</f>
+        <v>0.98209999999999997</v>
+      </c>
+      <c r="P15" s="30"/>
+    </row>
+    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="56"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
         <v>-0.8684726953990618</v>
       </c>
-      <c r="D15" s="85">
-        <f t="shared" si="2"/>
+      <c r="D16" s="36">
+        <f t="shared" si="3"/>
         <v>9.596352093577222</v>
       </c>
-      <c r="E15" s="85">
-        <f t="shared" si="2"/>
+      <c r="E16" s="36">
+        <f t="shared" si="3"/>
         <v>-0.40037086431350322</v>
       </c>
-      <c r="F15" s="86">
-        <f t="shared" si="2"/>
+      <c r="F16" s="37">
+        <f t="shared" si="3"/>
         <v>0.26251117092916343</v>
       </c>
-      <c r="G15" s="85">
-        <f t="shared" si="2"/>
+      <c r="G16" s="36">
+        <f t="shared" si="3"/>
         <v>0.16216216216216206</v>
       </c>
-      <c r="H15" s="85">
-        <f t="shared" si="2"/>
+      <c r="H16" s="36">
+        <f t="shared" si="3"/>
         <v>0.16279069767441867</v>
       </c>
-      <c r="I15" s="85">
-        <f t="shared" si="2"/>
+      <c r="I16" s="36">
+        <f t="shared" si="3"/>
         <v>0.24</v>
       </c>
-      <c r="J15" s="85">
-        <f t="shared" si="2"/>
+      <c r="J16" s="53">
+        <f t="shared" si="3"/>
         <v>0.15064516129032257</v>
       </c>
-      <c r="K15" s="87">
-        <f>SUM(F15:J15)/5</f>
+      <c r="K16" s="53">
+        <f>SUM(F16:J16)/5</f>
         <v>0.19562183841121333</v>
       </c>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="O15" s="92" cm="1">
-        <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.97189999999999999</v>
-      </c>
-      <c r="P15" s="37"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="B16" s="93">
-        <v>0.59497062398703404</v>
-      </c>
-      <c r="C16" s="93">
-        <v>6.5204130726141799E-2</v>
-      </c>
-      <c r="D16" s="93">
-        <v>0.19096694476944442</v>
-      </c>
-      <c r="E16" s="93">
-        <v>0.21992936628249515</v>
-      </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="58" t="s">
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="92" t="s">
         <v>245</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="96">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="37"/>
+      <c r="P16" s="30"/>
     </row>
     <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="79"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
+      <c r="A17" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="39">
+        <f>B15/B10</f>
+        <v>0.13228928679749213</v>
+      </c>
+      <c r="C17" s="39">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>1.9612231057062675E-2</v>
+      </c>
+      <c r="D17" s="39">
+        <f t="shared" si="4"/>
+        <v>0.16818187539142343</v>
+      </c>
+      <c r="E17" s="41">
+        <f t="shared" si="4"/>
+        <v>9.0872554301820452E-2</v>
+      </c>
+      <c r="F17" s="39">
+        <f t="shared" si="4"/>
+        <v>0.10308991111977933</v>
+      </c>
+      <c r="G17" s="39">
+        <f t="shared" si="4"/>
+        <v>0.10809180261934088</v>
+      </c>
+      <c r="H17" s="39">
+        <f t="shared" si="4"/>
+        <v>0.11511718929870608</v>
+      </c>
+      <c r="I17" s="39">
+        <f t="shared" si="4"/>
+        <v>0.13077409829149969</v>
+      </c>
+      <c r="J17" s="41">
+        <f t="shared" si="4"/>
+        <v>0.13530326594090203</v>
+      </c>
+      <c r="K17" s="41"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
       <c r="N17" s="98" t="s">
         <v>241</v>
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.2999640000000013E-2</v>
-      </c>
-      <c r="P17" s="37"/>
+        <v>8.3299036000000007E-2</v>
+      </c>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="48" t="s">
+      <c r="A18" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="58">
+        <v>0.59497062398703404</v>
+      </c>
+      <c r="C18" s="58">
+        <v>6.5204130726141799E-2</v>
+      </c>
+      <c r="D18" s="58">
+        <v>0.19096694476944442</v>
+      </c>
+      <c r="E18" s="58">
+        <v>0.21992936628249515</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="37"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="30"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="101" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="110" cm="1">
-        <f t="array" ref="D19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1985</v>
-      </c>
-      <c r="E19" s="110"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="58" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="92" t="s">
         <v>224</v>
       </c>
       <c r="O19" s="100">
         <f>O6+O7</f>
         <v>24371200000</v>
       </c>
-      <c r="P19" s="37"/>
+      <c r="P19" s="30"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
-        <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
-      </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="58" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="92" t="s">
         <v>201</v>
       </c>
       <c r="O20" s="100" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>106144218000</v>
-      </c>
-      <c r="P20" s="37"/>
+        <v>116352612000</v>
+      </c>
+      <c r="P20" s="30"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="58" t="s">
+      <c r="A21" s="113" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="114" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1985</v>
+      </c>
+      <c r="E21" s="114"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="92" t="s">
         <v>247</v>
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>130515418000</v>
-      </c>
-      <c r="P21" s="37"/>
+        <v>140723812000</v>
+      </c>
+      <c r="P21" s="30"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="72" t="s">
+      <c r="A22" s="113" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
+        <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
+      </c>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="O22" s="102">
+      <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>0.18673042904402298</v>
-      </c>
-      <c r="P22" s="37"/>
+        <v>0.1731846206667568</v>
+      </c>
+      <c r="P22" s="30"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="101"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
       <c r="N23" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="O23" s="103">
+      <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.81326957095597707</v>
-      </c>
-      <c r="P23" s="37"/>
+        <v>0.82681537933324323</v>
+      </c>
+      <c r="P23" s="30"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="101"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="104" t="s">
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="103" t="s">
         <v>250</v>
       </c>
-      <c r="O24" s="105"/>
-      <c r="P24" s="37"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="101"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="106">
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="105">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.0643488115720646E-2</v>
-      </c>
-      <c r="O25" s="107"/>
-      <c r="P25" s="37"/>
+        <v>7.1787373937836643E-2</v>
+      </c>
+      <c r="O25" s="106"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="101"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="101"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="79"/>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="79"/>
-      <c r="M33" s="79"/>
-      <c r="N33" s="79"/>
-      <c r="O33" s="79"/>
-      <c r="P33" s="79"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="79"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="79"/>
-      <c r="P34" s="79"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="79"/>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
-      <c r="P35" s="79"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="79"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="79"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="79"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="79"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="79"/>
-      <c r="O50" s="79"/>
-      <c r="P50" s="79"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="79"/>
-      <c r="M51" s="79"/>
-      <c r="N51" s="79"/>
-      <c r="O51" s="79"/>
-      <c r="P51" s="79"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="79"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="79"/>
-      <c r="J52" s="79"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="79"/>
-      <c r="M52" s="79"/>
-      <c r="N52" s="79"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="79"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="79"/>
-      <c r="J53" s="79"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="79"/>
-      <c r="M53" s="79"/>
-      <c r="N53" s="79"/>
-      <c r="O53" s="79"/>
-      <c r="P53" s="79"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="79"/>
-      <c r="J54" s="79"/>
-      <c r="K54" s="79"/>
-      <c r="L54" s="79"/>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="35"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="79"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="79"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="79"/>
-      <c r="I55" s="79"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="79"/>
-      <c r="M55" s="79"/>
-      <c r="N55" s="79"/>
-      <c r="O55" s="79"/>
-      <c r="P55" s="79"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
+      <c r="P55" s="35"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="79"/>
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="79"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="79"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="79"/>
-      <c r="M56" s="79"/>
-      <c r="N56" s="79"/>
-      <c r="O56" s="79"/>
-      <c r="P56" s="79"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="35"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="79"/>
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="79"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="79"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="79"/>
-      <c r="M57" s="79"/>
-      <c r="N57" s="79"/>
-      <c r="O57" s="79"/>
-      <c r="P57" s="79"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
+      <c r="P57" s="35"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="79"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="79"/>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="79"/>
-      <c r="M58" s="79"/>
-      <c r="N58" s="79"/>
-      <c r="O58" s="79"/>
-      <c r="P58" s="79"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="35"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="79"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="79"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="79"/>
-      <c r="M59" s="79"/>
-      <c r="N59" s="79"/>
-      <c r="O59" s="79"/>
-      <c r="P59" s="79"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="79"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="79"/>
-      <c r="M60" s="79"/>
-      <c r="N60" s="79"/>
-      <c r="O60" s="79"/>
-      <c r="P60" s="79"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="79"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79"/>
-      <c r="K61" s="79"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="79"/>
-      <c r="N61" s="79"/>
-      <c r="O61" s="79"/>
-      <c r="P61" s="79"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="37"/>
-      <c r="P62" s="37"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="37"/>
-      <c r="P63" s="37"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
+      <c r="O67" s="30"/>
+      <c r="P67" s="30"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
+      <c r="O68" s="30"/>
+      <c r="P68" s="30"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
+      <c r="O70" s="30"/>
+      <c r="P70" s="30"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
+      <c r="O71" s="30"/>
+      <c r="P71" s="30"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
+      <c r="O73" s="30"/>
+      <c r="P73" s="30"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="37"/>
-      <c r="P75" s="37"/>
+      <c r="O75" s="30"/>
+      <c r="P75" s="30"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="37"/>
-      <c r="P76" s="37"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="37"/>
-      <c r="P77" s="37"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="37"/>
-      <c r="P78" s="37"/>
+      <c r="O78" s="30"/>
+      <c r="P78" s="30"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="37"/>
-      <c r="P79" s="37"/>
+      <c r="O79" s="30"/>
+      <c r="P79" s="30"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="37"/>
-      <c r="P80" s="37"/>
+      <c r="O80" s="30"/>
+      <c r="P80" s="30"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="37"/>
-      <c r="P81" s="37"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="37"/>
-      <c r="P82" s="37"/>
+      <c r="O82" s="30"/>
+      <c r="P82" s="30"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="37"/>
-      <c r="P83" s="37"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="37"/>
-      <c r="P84" s="37"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="37"/>
-      <c r="P85" s="37"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="37"/>
-      <c r="P86" s="37"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="37"/>
-      <c r="P87" s="37"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="37"/>
-      <c r="P89" s="37"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="37"/>
-      <c r="P90" s="37"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="37"/>
-      <c r="P91" s="37"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="37"/>
-      <c r="P92" s="37"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
+      <c r="O93" s="30"/>
+      <c r="P93" s="30"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="37"/>
-      <c r="P94" s="37"/>
+      <c r="O94" s="30"/>
+      <c r="P94" s="30"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="37"/>
-      <c r="P95" s="37"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="37"/>
-      <c r="P96" s="37"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="37"/>
-      <c r="P97" s="37"/>
+      <c r="O97" s="30"/>
+      <c r="P97" s="30"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="37"/>
-      <c r="P98" s="37"/>
+      <c r="O98" s="30"/>
+      <c r="P98" s="30"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="37"/>
-      <c r="P99" s="37"/>
+      <c r="O99" s="30"/>
+      <c r="P99" s="30"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="37"/>
-      <c r="P100" s="37"/>
+      <c r="O100" s="30"/>
+      <c r="P100" s="30"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="37"/>
-      <c r="P101" s="37"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="30"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="37"/>
-      <c r="P102" s="37"/>
+      <c r="O102" s="30"/>
+      <c r="P102" s="30"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="37"/>
-      <c r="P103" s="37"/>
+      <c r="O103" s="30"/>
+      <c r="P103" s="30"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="37"/>
-      <c r="P104" s="37"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="37"/>
-      <c r="P105" s="37"/>
+      <c r="O105" s="30"/>
+      <c r="P105" s="30"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="37"/>
-      <c r="P106" s="37"/>
+      <c r="O106" s="30"/>
+      <c r="P106" s="30"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="37"/>
-      <c r="P107" s="37"/>
+      <c r="O107" s="30"/>
+      <c r="P107" s="30"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="37"/>
-      <c r="P108" s="37"/>
+      <c r="O108" s="30"/>
+      <c r="P108" s="30"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="37"/>
-      <c r="P109" s="37"/>
+      <c r="O109" s="30"/>
+      <c r="P109" s="30"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="37"/>
-      <c r="P110" s="37"/>
+      <c r="O110" s="30"/>
+      <c r="P110" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N24:O24"/>
     <mergeCell ref="N25:O25"/>
     <mergeCell ref="A1:XFD2"/>
@@ -17424,8 +17650,9 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:E30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NASDAQGS:SBUX/explorer/revenue_proj" xr:uid="{68724BDE-9378-E04F-9E17-70959927695E}"/>

--- a/Consumer/Starbucks.xlsx
+++ b/Consumer/Starbucks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D1DD84-18F1-3848-B584-C75E020955BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB412ACC-2AD1-7347-91AA-2D4321883E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1729,12 +1729,14 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Quality"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1752,7 +1754,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.4839999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1765,6 +1767,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1892,11 +1896,11 @@
     <v>Powered by Refinitiv</v>
     <v>115.48</v>
     <v>89.21</v>
-    <v>0.98209999999999997</v>
-    <v>-0.42</v>
-    <v>-4.0860000000000002E-3</v>
-    <v>-0.03</v>
-    <v>-2.9309999999999997E-4</v>
+    <v>0.99870000000000003</v>
+    <v>0.17</v>
+    <v>1.763E-3</v>
+    <v>0.14000000000000001</v>
+    <v>1.449E-3</v>
     <v>USD</v>
     <v>Starbucks Corp is a roaster, marketer, and retailer of specialty coffee with operations in approximately 83 markets. It has over 35,000 Company-operated and licensed stores. It operates through three segments: North America, which includes the United States and Canada; International, which includes China, Japan, Asia Pacific, Europe, Middle East, Africa, Latin America and the Caribbean; and Channel Development. Its North America and International segments include both Company-operated and licensed stores. Channel Development segment includes roasted whole bean and ground coffees, Seattle's Best Coffee, Starbucks and Teavana-branded single-serve products, a variety of ready-to-drink beverages, such as Frappuccino and Starbucks Doubleshot, foodservice products and other branded products sold worldwide outside of its Company-operated and licensed stores. It also sells goods and services under various brands, including Teavana, Seattle's Best Coffee, Ethos, Starbucks Reserve and Princi.</v>
     <v>381000</v>
@@ -1904,25 +1908,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>P O Box 34067, SEATTLE, WA, 98124-1067 US</v>
-    <v>103.09</v>
+    <v>96.86</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45258.041326099221</v>
+    <v>45269.04146663125</v>
     <v>0</v>
-    <v>102.065</v>
-    <v>116352612000</v>
+    <v>95.81</v>
+    <v>109623400000</v>
     <v>STARBUCKS CORPORATION</v>
     <v>STARBUCKS CORPORATION</v>
-    <v>102.29</v>
-    <v>32.799700000000001</v>
-    <v>102.78</v>
-    <v>102.36</v>
-    <v>102.33</v>
+    <v>96.08</v>
+    <v>30.902699999999999</v>
+    <v>96.44</v>
+    <v>96.61</v>
+    <v>96.75</v>
     <v>1136700000</v>
     <v>SBUX</v>
     <v>STARBUCKS CORPORATION (XNAS:SBUX)</v>
-    <v>7853572</v>
-    <v>8063268</v>
+    <v>7125234</v>
+    <v>9276506</v>
     <v>1985</v>
   </rv>
   <rv s="2">
@@ -15850,7 +15854,7 @@
   <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15899,7 +15903,7 @@
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="62" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>116352612000</v>
+        <v>109623400000</v>
       </c>
       <c r="B3" s="63" t="s">
         <v>201</v>
@@ -15927,14 +15931,14 @@
       </c>
       <c r="I3" s="67">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>156288959703.43292</v>
+        <v>156456674684.09271</v>
       </c>
       <c r="J3" s="68" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="69">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>2.0515224875226695E-2</v>
+        <v>2.1774548134796037E-2</v>
       </c>
       <c r="L3" s="70" t="s">
         <v>206</v>
@@ -15977,14 +15981,14 @@
       </c>
       <c r="I4" s="31">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>131505012497.7971</v>
+        <v>131652626088.71234</v>
       </c>
       <c r="J4" s="73" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="75" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-4.0860000000000002E-3</v>
+        <v>1.763E-3</v>
       </c>
       <c r="L4" s="76" t="s">
         <v>213</v>
@@ -16027,14 +16031,14 @@
       </c>
       <c r="I5" s="31">
         <f>I4+G5-G6</f>
-        <v>110753812497.7971</v>
+        <v>110901426088.71234</v>
       </c>
       <c r="J5" s="73" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="78" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>102.36</v>
+        <v>96.61</v>
       </c>
       <c r="L5" s="79" t="s">
         <v>220</v>
@@ -16052,7 +16056,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="80">
         <f>O20/F10</f>
-        <v>3.2418325485497759</v>
+        <v>3.0543423142291939</v>
       </c>
       <c r="B6" s="72" t="s">
         <v>222</v>
@@ -16080,14 +16084,14 @@
       </c>
       <c r="I6" s="75">
         <f>N25</f>
-        <v>7.1787373937836643E-2</v>
+        <v>7.1737219839068084E-2</v>
       </c>
       <c r="J6" s="73" t="s">
         <v>225</v>
       </c>
       <c r="K6" s="33">
         <f>I5/G4</f>
-        <v>115.67254557426047</v>
+        <v>115.82671489301744</v>
       </c>
       <c r="L6" s="81" t="s">
         <v>226</v>
@@ -16105,14 +16109,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="82">
         <f>O20/F12</f>
-        <v>29.278463009562152</v>
+        <v>27.585153497735281</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="84">
         <f>F15/A3</f>
-        <v>3.1799887741239534E-2</v>
+        <v>3.375191792993102E-2</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>229</v>
@@ -16139,7 +16143,7 @@
       </c>
       <c r="K7" s="90">
         <f>K6/K5-1</f>
-        <v>0.13005613104982872</v>
+        <v>0.1989102048754523</v>
       </c>
       <c r="L7" s="91" t="s">
         <v>232</v>
@@ -16453,7 +16457,7 @@
       </c>
       <c r="O14" s="96">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.4839999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="30"/>
     </row>
@@ -16498,7 +16502,7 @@
       </c>
       <c r="O15" s="97" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.98209999999999997</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="P15" s="30"/>
     </row>
@@ -16599,7 +16603,7 @@
       </c>
       <c r="O17" s="99">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.3299036000000007E-2</v>
+        <v>8.3944373000000017E-2</v>
       </c>
       <c r="P17" s="30"/>
     </row>
@@ -16675,7 +16679,7 @@
       </c>
       <c r="O20" s="100" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>116352612000</v>
+        <v>109623400000</v>
       </c>
       <c r="P20" s="30"/>
     </row>
@@ -16703,7 +16707,7 @@
       </c>
       <c r="O21" s="100">
         <f>O19+O20</f>
-        <v>140723812000</v>
+        <v>133994600000</v>
       </c>
       <c r="P21" s="30"/>
     </row>
@@ -16729,7 +16733,7 @@
       </c>
       <c r="O22" s="101">
         <f>(O19/O21)</f>
-        <v>0.1731846206667568</v>
+        <v>0.18188195643705043</v>
       </c>
       <c r="P22" s="30"/>
     </row>
@@ -16752,7 +16756,7 @@
       </c>
       <c r="O23" s="102">
         <f>O20/O21</f>
-        <v>0.82681537933324323</v>
+        <v>0.81811804356294959</v>
       </c>
       <c r="P23" s="30"/>
     </row>
@@ -16792,7 +16796,7 @@
       <c r="M25" s="35"/>
       <c r="N25" s="105">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.1787373937836643E-2</v>
+        <v>7.1737219839068084E-2</v>
       </c>
       <c r="O25" s="106"/>
       <c r="P25" s="30"/>
